--- a/src/test/resources/testdata/datalogin.xlsx
+++ b/src/test/resources/testdata/datalogin.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Java\Git\SeleniumTestNGParellel\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Java\Git\SeleniumTestNGParallel\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AFD890-14E2-494E-B674-A1418DFA686C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E182DA-6B73-4521-8E87-ACDB8D0C1F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10530" yWindow="3855" windowWidth="16875" windowHeight="11835" xr2:uid="{9730CA2F-D2D0-497A-AF27-55F7CFC16991}"/>
+    <workbookView xWindow="10530" yWindow="3855" windowWidth="16875" windowHeight="11835" activeTab="1" xr2:uid="{9730CA2F-D2D0-497A-AF27-55F7CFC16991}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>EMAIL</t>
   </si>
@@ -423,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C19973-F4FA-476E-93F6-2AF194F11F77}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,4 +493,80 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608E34AC-F7C5-4813-8BBC-44FEB1DB7AF8}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{9F484D39-40D0-443D-A9BE-37094CF50BA4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98FB371-4043-4AD5-8102-449D9F194902}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{9E838A18-416A-4F9F-A734-D88AE1F5A5AC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>